--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-252551.3153777583</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17519797.43398183</v>
+        <v>16193409.34670118</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28785902.26853178</v>
+        <v>27459514.1812511</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.287231722531281e-10</v>
+        <v>735611.8247571512</v>
       </c>
     </row>
     <row r="11">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22646,16 +22646,16 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
@@ -22667,13 +22667,13 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -22728,7 +22728,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>104.82327226356</v>
@@ -22749,7 +22749,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -22822,16 +22822,16 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -22889,10 +22889,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
@@ -22910,7 +22910,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -22965,10 +22965,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>109.5937994785061</v>
@@ -22986,7 +22986,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -23050,7 +23050,7 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
@@ -23059,7 +23059,7 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -23068,7 +23068,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -23120,16 +23120,16 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -23141,13 +23141,13 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -23202,7 +23202,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>104.82327226356</v>
@@ -23223,7 +23223,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -23305,7 +23305,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R11" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
@@ -23363,7 +23363,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>112.5754335711478</v>
@@ -23378,13 +23378,13 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -23439,7 +23439,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>104.82327226356</v>
@@ -23460,7 +23460,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23518,7 +23518,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>178.8230039740467</v>
@@ -23542,7 +23542,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R14" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
@@ -23594,13 +23594,13 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
@@ -23621,7 +23621,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -23676,7 +23676,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>104.82327226356</v>
@@ -23697,7 +23697,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
         <v>148.0265635717656</v>
@@ -23779,7 +23779,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R17" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23831,13 +23831,13 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>112.5754335711478</v>
@@ -23858,7 +23858,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -23913,10 +23913,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>109.5937994785061</v>
@@ -23925,16 +23925,16 @@
         <v>112.8771994574291</v>
       </c>
       <c r="N19" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -24068,7 +24068,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>103.0555716666667</v>
@@ -24095,7 +24095,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -24150,13 +24150,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>112.8771994574291</v>
@@ -24165,13 +24165,13 @@
         <v>103.744504878002</v>
       </c>
       <c r="O22" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -24253,7 +24253,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R23" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24305,13 +24305,13 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>112.5754335711478</v>
@@ -24326,13 +24326,13 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -24387,28 +24387,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O25" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -24490,7 +24490,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R26" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -24542,13 +24542,13 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>112.5754335711478</v>
@@ -24566,10 +24566,10 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -24624,7 +24624,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>104.82327226356</v>
@@ -24645,7 +24645,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24727,7 +24727,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R29" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
@@ -24779,10 +24779,10 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>111.9961691666667</v>
@@ -24803,10 +24803,10 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -24861,7 +24861,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>104.82327226356</v>
@@ -24882,7 +24882,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>148.0265635717656</v>
@@ -24964,7 +24964,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R32" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -25016,7 +25016,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>103.0555716666667</v>
@@ -25043,7 +25043,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -25098,7 +25098,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>104.82327226356</v>
@@ -25180,7 +25180,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>191.5602121631146</v>
@@ -25253,13 +25253,13 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>112.5754335711478</v>
@@ -25280,7 +25280,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -25335,7 +25335,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>104.82327226356</v>
@@ -25356,7 +25356,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -25414,10 +25414,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>191.5602121631146</v>
@@ -25435,10 +25435,10 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
@@ -25490,7 +25490,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>103.0555716666667</v>
@@ -25514,10 +25514,10 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -25572,7 +25572,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>104.82327226356</v>
@@ -25593,7 +25593,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -25651,10 +25651,10 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>191.5602121631146</v>
@@ -25672,10 +25672,10 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25727,7 +25727,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>103.0555716666667</v>
@@ -25751,7 +25751,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3645969707207</v>
@@ -25809,7 +25809,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>104.82327226356</v>
@@ -25830,7 +25830,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -25891,7 +25891,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>191.5602121631146</v>
@@ -25912,7 +25912,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R44" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25991,7 +25991,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -26046,13 +26046,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>104.82327226356</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>112.8771994574291</v>
@@ -26067,7 +26067,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>64405.79411214621</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>96332.49987179878</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>117886.1797257359</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>47186.72180842506</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>52209.05698302128</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>49869.75138797474</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>29619.50479346311</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>79435.54041199567</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>47740.99943620462</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>39312.16774472129</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>19377.80187798548</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>44620.63398291194</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>103126.1144055919</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>98672.36527459188</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.113221514970064e-11</v>
+        <v>51940.41015269951</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1814.247721468908</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2713.591545684473</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3320.737457062983</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1329.203431223241</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1470.677661493557</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1404.781729238725</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>834.3522477031858</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2237.620856675935</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1344.816885526891</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1107.385006893557</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>545.8535740277597</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1256.91926712428</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2904.960969171603</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2779.503247171603</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1463.110145146465</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2721.371582203362</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4070.387318526709</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4981.106185594475</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1993.805146834862</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2206.016492240336</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2107.172593858088</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1251.528371554778</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3356.431285013901</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2017.225328290336</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1661.077510340336</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>818.7803610416396</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1885.37890068642</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4357.441453757405</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4169.254870757404</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2194.665217719697</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
     </row>
   </sheetData>
